--- a/classfiers/chatty/elm/smote/chatty_elm_tanh_smote_results.xlsx
+++ b/classfiers/chatty/elm/smote/chatty_elm_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5158371040723982</v>
+        <v>0.5098522167487685</v>
       </c>
       <c r="C2" t="n">
-        <v>0.987012987012987</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6775631500742944</v>
+        <v>0.6753670473083198</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5961684514316093</v>
+        <v>0.548076923076923</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6219512195121951</v>
+        <v>0.4975728155339806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4594594594594595</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5284974093264249</v>
+        <v>0.6645056726094003</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6738890789523702</v>
+        <v>0.5166666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.5221238938053098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.288135593220339</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4473684210526315</v>
+        <v>0.6592178770949721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6507847533632287</v>
+        <v>0.6326048503467859</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5864661654135338</v>
+        <v>0.5048231511254019</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.7889447236180904</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7393364928909952</v>
+        <v>0.615686274509804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.764596391263058</v>
+        <v>0.7189070351758794</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5011185682326622</v>
+        <v>0.6286549707602339</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9429824561403509</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6676602086438153</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5363247863247863</v>
+        <v>0.7385045274476514</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6450746114461579</v>
+        <v>0.532605409594739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7469216079385571</v>
+        <v>0.9251733147395671</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6120851363976323</v>
+        <v>0.6738325672869554</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6443526922670104</v>
+        <v>0.6309520005427812</v>
       </c>
     </row>
   </sheetData>
